--- a/datos.xlsx
+++ b/datos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9279ab3caa12efcc/Escritorio/AbrahamBohorquez/AM5_ModelosProbabilisticos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="214" documentId="13_ncr:1_{E959672A-8864-4869-BABD-6599D690D941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CCB86D58-6DEE-4401-AE71-EEF0A54700D9}"/>
+  <xr:revisionPtr revIDLastSave="226" documentId="13_ncr:1_{E959672A-8864-4869-BABD-6599D690D941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D3D7B4D9-8E57-41DC-8E66-CD251BFCF6AC}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Llegadas" sheetId="1" r:id="rId1"/>
@@ -41,8 +41,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="29">
   <si>
     <t>31/10/2024
 6:30 am - 6:50 am</t>
@@ -133,6 +155,18 @@
   </si>
   <si>
     <t>tasa</t>
+  </si>
+  <si>
+    <t>ÉXITO</t>
+  </si>
+  <si>
+    <t>ERROR</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>q</t>
   </si>
 </sst>
 </file>
@@ -268,7 +302,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -295,15 +329,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -313,8 +338,14 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -620,9 +651,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G657"/>
+  <dimension ref="A1:F657"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -635,7 +666,7 @@
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>16</v>
       </c>
@@ -646,7 +677,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
@@ -662,9 +693,8 @@
         <f>1/(AVERAGE(D2:D41)*24*60)</f>
         <v>11.233081224161367</v>
       </c>
-      <c r="G2" s="18"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="3">
         <v>45596.278501100547</v>
@@ -675,7 +705,7 @@
       </c>
       <c r="E3" s="8"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
       <c r="B4" s="3">
         <v>45596.278511989847</v>
@@ -686,7 +716,7 @@
       </c>
       <c r="E4" s="8"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
       <c r="B5" s="3">
         <v>45596.278563635933</v>
@@ -697,7 +727,7 @@
       </c>
       <c r="E5" s="8"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
       <c r="B6" s="3">
         <v>45596.278591145689</v>
@@ -708,7 +738,7 @@
       </c>
       <c r="E6" s="8"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
       <c r="B7" s="3">
         <v>45596.278680237665</v>
@@ -719,7 +749,7 @@
       </c>
       <c r="E7" s="8"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
       <c r="B8" s="3">
         <v>45596.278824368244</v>
@@ -730,7 +760,7 @@
       </c>
       <c r="E8" s="8"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
       <c r="B9" s="3">
         <v>45596.278964955636</v>
@@ -741,7 +771,7 @@
       </c>
       <c r="E9" s="8"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" s="3">
         <v>45596.279373972531</v>
@@ -752,7 +782,7 @@
       </c>
       <c r="E10" s="8"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
       <c r="B11" s="3">
         <v>45596.279428110793</v>
@@ -763,7 +793,7 @@
       </c>
       <c r="E11" s="8"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
       <c r="B12" s="3">
         <v>45596.279472955539</v>
@@ -774,7 +804,7 @@
       </c>
       <c r="E12" s="8"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
       <c r="B13" s="3">
         <v>45596.279574572676</v>
@@ -785,7 +815,7 @@
       </c>
       <c r="E13" s="8"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
       <c r="B14" s="3">
         <v>45596.279710731054</v>
@@ -796,7 +826,7 @@
       </c>
       <c r="E14" s="8"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
       <c r="B15" s="3">
         <v>45596.27972616865</v>
@@ -807,7 +837,7 @@
       </c>
       <c r="E15" s="8"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
       <c r="B16" s="3">
         <v>45596.279749482834</v>
@@ -7853,6 +7883,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A453:A493"/>
+    <mergeCell ref="A494:A534"/>
+    <mergeCell ref="A535:A575"/>
+    <mergeCell ref="A576:A616"/>
+    <mergeCell ref="A617:A657"/>
     <mergeCell ref="A412:A452"/>
     <mergeCell ref="A2:A42"/>
     <mergeCell ref="A43:A83"/>
@@ -7864,11 +7899,6 @@
     <mergeCell ref="A289:A329"/>
     <mergeCell ref="A330:A370"/>
     <mergeCell ref="A371:A411"/>
-    <mergeCell ref="A453:A493"/>
-    <mergeCell ref="A494:A534"/>
-    <mergeCell ref="A535:A575"/>
-    <mergeCell ref="A576:A616"/>
-    <mergeCell ref="A617:A657"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -17405,6 +17435,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A128:A150"/>
+    <mergeCell ref="A2:A26"/>
+    <mergeCell ref="A27:A52"/>
+    <mergeCell ref="A53:A80"/>
+    <mergeCell ref="A81:A103"/>
+    <mergeCell ref="A104:A127"/>
     <mergeCell ref="A312:A336"/>
     <mergeCell ref="A337:A359"/>
     <mergeCell ref="A360:A382"/>
@@ -17415,12 +17451,6 @@
     <mergeCell ref="A231:A254"/>
     <mergeCell ref="A255:A285"/>
     <mergeCell ref="A286:A311"/>
-    <mergeCell ref="A128:A150"/>
-    <mergeCell ref="A2:A26"/>
-    <mergeCell ref="A27:A52"/>
-    <mergeCell ref="A53:A80"/>
-    <mergeCell ref="A81:A103"/>
-    <mergeCell ref="A104:A127"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -19474,10 +19504,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8678F2B-C7F1-4643-B74E-7EDBCA16B348}">
-  <dimension ref="A1:H405"/>
+  <dimension ref="A1:K405"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19487,7 +19517,7 @@
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>16</v>
       </c>
@@ -19504,7 +19534,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
@@ -19525,8 +19555,15 @@
         <f>1/(AVERAGE(F2:F41)*24*60)</f>
         <v>4.0828387429364099</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" cm="1">
+        <f t="array" ref="J2">SUM(IF(D2:D405,1,0))/COUNTA(D2:D405)</f>
+        <v>0.69306930693069302</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="B3" s="3">
         <v>45596.279082775894</v>
@@ -19541,8 +19578,18 @@
         <f t="shared" ref="F3:F66" si="0">C3-B3</f>
         <v>5.4204327898332849E-4</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3">
+        <f>1-J2</f>
+        <v>0.30693069306930698</v>
+      </c>
+      <c r="K3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
       <c r="B4" s="3">
         <v>45596.278632154274</v>
@@ -19558,7 +19605,7 @@
         <v>3.7783902371302247E-6</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="B5" s="3">
         <v>45596.280109074345</v>
@@ -19574,7 +19621,7 @@
         <v>1.8703295791056007E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
       <c r="B6" s="3">
         <v>45596.280145717254</v>
@@ -19590,7 +19637,7 @@
         <v>2.0211607625242323E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="B7" s="3">
         <v>45596.2812109968</v>
@@ -19606,7 +19653,7 @@
         <v>2.403789185336791E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="B8" s="3">
         <v>45596.280931390895</v>
@@ -19622,7 +19669,7 @@
         <v>8.0704383435659111E-5</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" s="3">
         <v>45596.281194137031</v>
@@ -19638,7 +19685,7 @@
         <v>3.5811461566481739E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
       <c r="B10" s="3">
         <v>45596.281812209687</v>
@@ -19654,7 +19701,7 @@
         <v>2.1979805751470849E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="3">
         <v>45596.28213739636</v>
@@ -19670,7 +19717,7 @@
         <v>2.9446718690451235E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
       <c r="B12" s="3">
         <v>45596.282357301701</v>
@@ -19686,7 +19733,7 @@
         <v>8.5270912677515298E-5</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="B13" s="3">
         <v>45596.282790544894</v>
@@ -19702,7 +19749,7 @@
         <v>7.2347138484474272E-5</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
       <c r="B14" s="3">
         <v>45596.282501427981</v>
@@ -19718,7 +19765,7 @@
         <v>1.0539816139498726E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
       <c r="B15" s="3">
         <v>45596.282735071509</v>
@@ -19734,7 +19781,7 @@
         <v>1.3904371007811278E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
       <c r="B16" s="3">
         <v>45596.283745839457</v>
@@ -26006,6 +26053,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A128:A150"/>
+    <mergeCell ref="A2:A26"/>
+    <mergeCell ref="A27:A52"/>
+    <mergeCell ref="A53:A80"/>
+    <mergeCell ref="A81:A103"/>
+    <mergeCell ref="A104:A127"/>
     <mergeCell ref="A312:A336"/>
     <mergeCell ref="A337:A359"/>
     <mergeCell ref="A360:A382"/>
@@ -26016,12 +26069,6 @@
     <mergeCell ref="A231:A254"/>
     <mergeCell ref="A255:A285"/>
     <mergeCell ref="A286:A311"/>
-    <mergeCell ref="A128:A150"/>
-    <mergeCell ref="A2:A26"/>
-    <mergeCell ref="A27:A52"/>
-    <mergeCell ref="A53:A80"/>
-    <mergeCell ref="A81:A103"/>
-    <mergeCell ref="A104:A127"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -28073,10 +28120,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A0B6301-A7D0-47D9-8DF9-07B431483CBF}">
-  <dimension ref="A1:H405"/>
+  <dimension ref="A1:K405"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28085,7 +28132,7 @@
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>16</v>
       </c>
@@ -28102,7 +28149,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
@@ -28123,8 +28170,15 @@
         <f>1/(AVERAGE(F2:F41)*24*60)</f>
         <v>10.978609964027749</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" cm="1">
+        <f t="array" ref="J2">SUM(IF(D2:D405,1,0))/COUNTA(D2:D405)</f>
+        <v>0.81188118811881194</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="B3" s="3">
         <v>45596.279624819173</v>
@@ -28139,8 +28193,18 @@
         <f t="shared" ref="F3:F66" si="0">C3-B3</f>
         <v>5.2841933211311698E-6</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3">
+        <f>1-J2</f>
+        <v>0.18811881188118806</v>
+      </c>
+      <c r="K3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
       <c r="B4" s="3">
         <v>45596.278635932664</v>
@@ -28156,7 +28220,7 @@
         <v>2.5890651158988476E-5</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="B5" s="3">
         <v>45596.280296107303</v>
@@ -28172,7 +28236,7 @@
         <v>1.2614254956133664E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
       <c r="B6" s="3">
         <v>45596.28034783333</v>
@@ -28188,7 +28252,7 @@
         <v>1.5789378812769428E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="B7" s="3">
         <v>45596.281451375718</v>
@@ -28204,7 +28268,7 @@
         <v>1.4082630514167249E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="B8" s="3">
         <v>45596.281012095278</v>
@@ -28220,7 +28284,7 @@
         <v>7.5826319516636431E-6</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" s="3">
         <v>45596.281552251647</v>
@@ -28236,7 +28300,7 @@
         <v>7.622070552315563E-5</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
       <c r="B10" s="3">
         <v>45596.282032007744</v>
@@ -28252,7 +28316,7 @@
         <v>1.1945136066060513E-5</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="3">
         <v>45596.282431863547</v>
@@ -28268,7 +28332,7 @@
         <v>6.6726985096465796E-5</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
       <c r="B12" s="3">
         <v>45596.282442572614</v>
@@ -28284,7 +28348,7 @@
         <v>1.9127161067444831E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="B13" s="3">
         <v>45596.282862892032</v>
@@ -28300,7 +28364,7 @@
         <v>1.1729486141121015E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
       <c r="B14" s="3">
         <v>45596.282606826142</v>
@@ -28316,7 +28380,7 @@
         <v>4.0727361920289695E-5</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
       <c r="B15" s="3">
         <v>45596.282874115219</v>
@@ -28332,7 +28396,7 @@
         <v>2.5999004719778895E-5</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
       <c r="B16" s="3">
         <v>45596.28406725511</v>
@@ -34604,6 +34668,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A128:A150"/>
+    <mergeCell ref="A2:A26"/>
+    <mergeCell ref="A27:A52"/>
+    <mergeCell ref="A53:A80"/>
+    <mergeCell ref="A81:A103"/>
+    <mergeCell ref="A104:A127"/>
     <mergeCell ref="A312:A336"/>
     <mergeCell ref="A337:A359"/>
     <mergeCell ref="A360:A382"/>
@@ -34614,12 +34684,6 @@
     <mergeCell ref="A231:A254"/>
     <mergeCell ref="A255:A285"/>
     <mergeCell ref="A286:A311"/>
-    <mergeCell ref="A128:A150"/>
-    <mergeCell ref="A2:A26"/>
-    <mergeCell ref="A27:A52"/>
-    <mergeCell ref="A53:A80"/>
-    <mergeCell ref="A81:A103"/>
-    <mergeCell ref="A104:A127"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -36696,7 +36760,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3">
@@ -36715,7 +36779,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
+      <c r="A3" s="16"/>
       <c r="B3" s="3">
         <v>45596.279630103367</v>
       </c>
@@ -36728,7 +36792,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="3">
         <v>45596.278661823315</v>
       </c>
@@ -36741,7 +36805,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
+      <c r="A5" s="16"/>
       <c r="B5" s="3">
         <v>45596.280308721558</v>
       </c>
@@ -36754,7 +36818,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
+      <c r="A6" s="16"/>
       <c r="B6" s="3">
         <v>45596.280505727118</v>
       </c>
@@ -36767,7 +36831,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="3">
         <v>45596.281465458349</v>
       </c>
@@ -36780,7 +36844,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="3">
         <v>45596.28101967791</v>
       </c>
@@ -36793,7 +36857,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
+      <c r="A9" s="16"/>
       <c r="B9" s="3">
         <v>45596.281628472352</v>
       </c>
@@ -36806,7 +36870,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="3">
         <v>45596.28204395288</v>
       </c>
@@ -36819,7 +36883,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="3">
         <v>45596.282498590532</v>
       </c>
@@ -36832,7 +36896,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
+      <c r="A12" s="16"/>
       <c r="B12" s="3">
         <v>45596.282633844225</v>
       </c>
@@ -36845,7 +36909,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
+      <c r="A13" s="17"/>
       <c r="B13" s="3">
         <v>45596.282980186894</v>
       </c>
@@ -36858,7 +36922,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="15" t="s">
         <v>1</v>
       </c>
       <c r="B14" s="3">
@@ -36873,7 +36937,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
+      <c r="A15" s="16"/>
       <c r="B15" s="3">
         <v>45596.289981059032</v>
       </c>
@@ -36886,7 +36950,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
+      <c r="A16" s="16"/>
       <c r="B16" s="3">
         <v>45596.291957806694</v>
       </c>
@@ -36899,7 +36963,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
+      <c r="A17" s="16"/>
       <c r="B17" s="3">
         <v>45596.29215487514</v>
       </c>
@@ -36912,7 +36976,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
+      <c r="A18" s="16"/>
       <c r="B18" s="3">
         <v>45596.293227696464</v>
       </c>
@@ -36925,7 +36989,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="13"/>
+      <c r="A19" s="16"/>
       <c r="B19" s="3">
         <v>45596.292723197199</v>
       </c>
@@ -36938,7 +37002,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
+      <c r="A20" s="16"/>
       <c r="B20" s="3">
         <v>45596.293026780913</v>
       </c>
@@ -36951,7 +37015,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="13"/>
+      <c r="A21" s="16"/>
       <c r="B21" s="3">
         <v>45596.293643496181</v>
       </c>
@@ -36964,7 +37028,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="13"/>
+      <c r="A22" s="16"/>
       <c r="B22" s="3">
         <v>45596.293416672539</v>
       </c>
@@ -36977,7 +37041,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="13"/>
+      <c r="A23" s="16"/>
       <c r="B23" s="3">
         <v>45596.294246545483</v>
       </c>
@@ -36990,7 +37054,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="13"/>
+      <c r="A24" s="16"/>
       <c r="B24" s="3">
         <v>45596.294305811549</v>
       </c>
@@ -37003,7 +37067,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
+      <c r="A25" s="17"/>
       <c r="B25" s="3">
         <v>45596.295521247499</v>
       </c>
@@ -37016,7 +37080,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B26" s="3">
@@ -37031,7 +37095,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="16"/>
+      <c r="A27" s="13"/>
       <c r="B27" s="3">
         <v>45596.3027643764</v>
       </c>
@@ -37044,7 +37108,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="16"/>
+      <c r="A28" s="13"/>
       <c r="B28" s="3">
         <v>45596.302381210466</v>
       </c>
@@ -37057,7 +37121,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="16"/>
+      <c r="A29" s="13"/>
       <c r="B29" s="3">
         <v>45596.30376339244</v>
       </c>
@@ -37070,7 +37134,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="16"/>
+      <c r="A30" s="13"/>
       <c r="B30" s="3">
         <v>45596.304152794779</v>
       </c>
@@ -37083,7 +37147,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="16"/>
+      <c r="A31" s="13"/>
       <c r="B31" s="3">
         <v>45596.304466689333</v>
       </c>
@@ -37096,7 +37160,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="16"/>
+      <c r="A32" s="13"/>
       <c r="B32" s="3">
         <v>45596.305226463104</v>
       </c>
@@ -37109,7 +37173,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="16"/>
+      <c r="A33" s="13"/>
       <c r="B33" s="3">
         <v>45596.305699286633</v>
       </c>
@@ -37122,7 +37186,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="16"/>
+      <c r="A34" s="13"/>
       <c r="B34" s="3">
         <v>45596.306185679001</v>
       </c>
@@ -37135,7 +37199,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="16"/>
+      <c r="A35" s="13"/>
       <c r="B35" s="3">
         <v>45596.30585123285</v>
       </c>
@@ -37148,7 +37212,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="16"/>
+      <c r="A36" s="13"/>
       <c r="B36" s="3">
         <v>45596.306662201161</v>
       </c>
@@ -37161,7 +37225,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="17"/>
+      <c r="A37" s="14"/>
       <c r="B37" s="3">
         <v>45596.306669837242</v>
       </c>
@@ -37174,7 +37238,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="12" t="s">
+      <c r="A38" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B38" s="3">
@@ -37189,7 +37253,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="13"/>
+      <c r="A39" s="16"/>
       <c r="B39" s="3">
         <v>45596.318116918497</v>
       </c>
@@ -37202,7 +37266,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="13"/>
+      <c r="A40" s="16"/>
       <c r="B40" s="3">
         <v>45596.317846643717</v>
       </c>
@@ -37215,7 +37279,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="13"/>
+      <c r="A41" s="16"/>
       <c r="B41" s="3">
         <v>45596.318479804584</v>
       </c>
@@ -37228,7 +37292,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="13"/>
+      <c r="A42" s="16"/>
       <c r="B42" s="3">
         <v>45596.319354770145</v>
       </c>
@@ -37241,7 +37305,7 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="13"/>
+      <c r="A43" s="16"/>
       <c r="B43" s="3">
         <v>45596.319143625093</v>
       </c>
@@ -37254,7 +37318,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="13"/>
+      <c r="A44" s="16"/>
       <c r="B44" s="3">
         <v>45596.319424010435</v>
       </c>
@@ -37267,7 +37331,7 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="13"/>
+      <c r="A45" s="16"/>
       <c r="B45" s="3">
         <v>45596.320443239347</v>
       </c>
@@ -37280,7 +37344,7 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="13"/>
+      <c r="A46" s="16"/>
       <c r="B46" s="3">
         <v>45596.320715158683</v>
       </c>
@@ -37293,7 +37357,7 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="13"/>
+      <c r="A47" s="16"/>
       <c r="B47" s="3">
         <v>45596.321603423399</v>
       </c>
@@ -37306,7 +37370,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="13"/>
+      <c r="A48" s="16"/>
       <c r="B48" s="3">
         <v>45596.322033754754</v>
       </c>
@@ -37319,7 +37383,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="14"/>
+      <c r="A49" s="17"/>
       <c r="B49" s="3">
         <v>45596.323123124661</v>
       </c>
@@ -37332,7 +37396,7 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="15" t="s">
+      <c r="A50" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B50" s="3">
@@ -37347,7 +37411,7 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="16"/>
+      <c r="A51" s="13"/>
       <c r="B51" s="3">
         <v>45596.342547410379</v>
       </c>
@@ -37360,7 +37424,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="16"/>
+      <c r="A52" s="13"/>
       <c r="B52" s="3">
         <v>45596.342987728553</v>
       </c>
@@ -37373,7 +37437,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="16"/>
+      <c r="A53" s="13"/>
       <c r="B53" s="3">
         <v>45596.343435754919</v>
       </c>
@@ -37386,7 +37450,7 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="16"/>
+      <c r="A54" s="13"/>
       <c r="B54" s="3">
         <v>45596.343896896717</v>
       </c>
@@ -37399,7 +37463,7 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="16"/>
+      <c r="A55" s="13"/>
       <c r="B55" s="3">
         <v>45596.344481862878</v>
       </c>
@@ -37412,7 +37476,7 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="16"/>
+      <c r="A56" s="13"/>
       <c r="B56" s="3">
         <v>45596.345003128248</v>
       </c>
@@ -37425,7 +37489,7 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="16"/>
+      <c r="A57" s="13"/>
       <c r="B57" s="3">
         <v>45596.34582160366</v>
       </c>
@@ -37438,7 +37502,7 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="16"/>
+      <c r="A58" s="13"/>
       <c r="B58" s="3">
         <v>45596.345367588008</v>
       </c>
@@ -37451,7 +37515,7 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="16"/>
+      <c r="A59" s="13"/>
       <c r="B59" s="3">
         <v>45596.345513411252</v>
       </c>
@@ -37464,7 +37528,7 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="16"/>
+      <c r="A60" s="13"/>
       <c r="B60" s="3">
         <v>45596.34524319195</v>
       </c>
@@ -37477,7 +37541,7 @@
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="17"/>
+      <c r="A61" s="14"/>
       <c r="B61" s="3">
         <v>45596.346085919336</v>
       </c>
@@ -37490,7 +37554,7 @@
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="12" t="s">
+      <c r="A62" s="15" t="s">
         <v>5</v>
       </c>
       <c r="B62" s="3">
@@ -37505,7 +37569,7 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="13"/>
+      <c r="A63" s="16"/>
       <c r="B63" s="3">
         <v>45596.351150985261</v>
       </c>
@@ -37518,7 +37582,7 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="13"/>
+      <c r="A64" s="16"/>
       <c r="B64" s="3">
         <v>45596.3522129993</v>
       </c>
@@ -37531,7 +37595,7 @@
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="13"/>
+      <c r="A65" s="16"/>
       <c r="B65" s="3">
         <v>45596.352316286044</v>
       </c>
@@ -37544,7 +37608,7 @@
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="13"/>
+      <c r="A66" s="16"/>
       <c r="B66" s="3">
         <v>45596.353367675139</v>
       </c>
@@ -37557,7 +37621,7 @@
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="13"/>
+      <c r="A67" s="16"/>
       <c r="B67" s="3">
         <v>45596.354698966468</v>
       </c>
@@ -37570,7 +37634,7 @@
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="13"/>
+      <c r="A68" s="16"/>
       <c r="B68" s="3">
         <v>45596.355811664682</v>
       </c>
@@ -37583,7 +37647,7 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="13"/>
+      <c r="A69" s="16"/>
       <c r="B69" s="3">
         <v>45596.355371921913</v>
       </c>
@@ -37596,7 +37660,7 @@
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="13"/>
+      <c r="A70" s="16"/>
       <c r="B70" s="3">
         <v>45596.35488974554</v>
       </c>
@@ -37609,7 +37673,7 @@
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="13"/>
+      <c r="A71" s="16"/>
       <c r="B71" s="3">
         <v>45596.356135344038</v>
       </c>
@@ -37622,7 +37686,7 @@
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="13"/>
+      <c r="A72" s="16"/>
       <c r="B72" s="3">
         <v>45596.356519564542</v>
       </c>
@@ -37635,7 +37699,7 @@
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="14"/>
+      <c r="A73" s="17"/>
       <c r="B73" s="3">
         <v>45596.357087898439</v>
       </c>
@@ -37648,7 +37712,7 @@
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="15" t="s">
+      <c r="A74" s="12" t="s">
         <v>6</v>
       </c>
       <c r="B74" s="3">
@@ -37663,7 +37727,7 @@
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="16"/>
+      <c r="A75" s="13"/>
       <c r="B75" s="3">
         <v>45596.365423767711</v>
       </c>
@@ -37676,7 +37740,7 @@
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="16"/>
+      <c r="A76" s="13"/>
       <c r="B76" s="3">
         <v>45596.365497554223</v>
       </c>
@@ -37689,7 +37753,7 @@
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="16"/>
+      <c r="A77" s="13"/>
       <c r="B77" s="3">
         <v>45596.365956459231</v>
       </c>
@@ -37702,7 +37766,7 @@
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="16"/>
+      <c r="A78" s="13"/>
       <c r="B78" s="3">
         <v>45596.367387387778</v>
       </c>
@@ -37715,7 +37779,7 @@
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="16"/>
+      <c r="A79" s="13"/>
       <c r="B79" s="3">
         <v>45596.367334964969</v>
       </c>
@@ -37728,7 +37792,7 @@
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="16"/>
+      <c r="A80" s="13"/>
       <c r="B80" s="3">
         <v>45596.367987875667</v>
       </c>
@@ -37741,7 +37805,7 @@
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="16"/>
+      <c r="A81" s="13"/>
       <c r="B81" s="3">
         <v>45596.368861277595</v>
       </c>
@@ -37754,7 +37818,7 @@
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="16"/>
+      <c r="A82" s="13"/>
       <c r="B82" s="3">
         <v>45596.368738777557</v>
       </c>
@@ -37767,7 +37831,7 @@
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="16"/>
+      <c r="A83" s="13"/>
       <c r="B83" s="3">
         <v>45596.369423175311</v>
       </c>
@@ -37780,7 +37844,7 @@
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="16"/>
+      <c r="A84" s="13"/>
       <c r="B84" s="3">
         <v>45596.370974944031</v>
       </c>
@@ -37793,7 +37857,7 @@
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="17"/>
+      <c r="A85" s="14"/>
       <c r="B85" s="3">
         <v>45596.370983952933</v>
       </c>
@@ -37806,7 +37870,7 @@
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="15" t="s">
+      <c r="A86" s="12" t="s">
         <v>7</v>
       </c>
       <c r="B86" s="3">
@@ -37821,7 +37885,7 @@
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="16"/>
+      <c r="A87" s="13"/>
       <c r="B87" s="3">
         <v>45596.380320425436</v>
       </c>
@@ -37834,7 +37898,7 @@
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="16"/>
+      <c r="A88" s="13"/>
       <c r="B88" s="3">
         <v>45596.38031993738</v>
       </c>
@@ -37847,7 +37911,7 @@
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="16"/>
+      <c r="A89" s="13"/>
       <c r="B89" s="3">
         <v>45596.381804360455</v>
       </c>
@@ -37860,7 +37924,7 @@
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="16"/>
+      <c r="A90" s="13"/>
       <c r="B90" s="3">
         <v>45596.382721334856</v>
       </c>
@@ -37873,7 +37937,7 @@
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="16"/>
+      <c r="A91" s="13"/>
       <c r="B91" s="3">
         <v>45596.384516303791</v>
       </c>
@@ -37886,7 +37950,7 @@
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="16"/>
+      <c r="A92" s="13"/>
       <c r="B92" s="3">
         <v>45596.38516345869</v>
       </c>
@@ -37899,7 +37963,7 @@
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="16"/>
+      <c r="A93" s="13"/>
       <c r="B93" s="3">
         <v>45596.383223685472</v>
       </c>
@@ -37912,7 +37976,7 @@
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="16"/>
+      <c r="A94" s="13"/>
       <c r="B94" s="3">
         <v>45596.383939197978</v>
       </c>
@@ -37925,7 +37989,7 @@
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="16"/>
+      <c r="A95" s="13"/>
       <c r="B95" s="3">
         <v>45596.385005933815</v>
       </c>
@@ -37938,7 +38002,7 @@
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="16"/>
+      <c r="A96" s="13"/>
       <c r="B96" s="3">
         <v>45596.383518373572</v>
       </c>
@@ -37951,7 +38015,7 @@
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="17"/>
+      <c r="A97" s="14"/>
       <c r="B97" s="3">
         <v>45596.383164342762</v>
       </c>
@@ -37964,7 +38028,7 @@
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="15" t="s">
+      <c r="A98" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B98" s="3">
@@ -37979,7 +38043,7 @@
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="16"/>
+      <c r="A99" s="13"/>
       <c r="B99" s="3">
         <v>45597.464920890947</v>
       </c>
@@ -37992,7 +38056,7 @@
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="16"/>
+      <c r="A100" s="13"/>
       <c r="B100" s="3">
         <v>45597.463852132132</v>
       </c>
@@ -38005,7 +38069,7 @@
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="16"/>
+      <c r="A101" s="13"/>
       <c r="B101" s="3">
         <v>45597.468366413312</v>
       </c>
@@ -38018,7 +38082,7 @@
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="16"/>
+      <c r="A102" s="13"/>
       <c r="B102" s="3">
         <v>45597.467089733473</v>
       </c>
@@ -38031,7 +38095,7 @@
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="16"/>
+      <c r="A103" s="13"/>
       <c r="B103" s="3">
         <v>45597.467458119667</v>
       </c>
@@ -38044,7 +38108,7 @@
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="16"/>
+      <c r="A104" s="13"/>
       <c r="B104" s="3">
         <v>45597.469490667281</v>
       </c>
@@ -38057,7 +38121,7 @@
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="16"/>
+      <c r="A105" s="13"/>
       <c r="B105" s="3">
         <v>45597.46783633755</v>
       </c>
@@ -38070,7 +38134,7 @@
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="16"/>
+      <c r="A106" s="13"/>
       <c r="B106" s="3">
         <v>45597.468295529987</v>
       </c>
@@ -38083,7 +38147,7 @@
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="16"/>
+      <c r="A107" s="13"/>
       <c r="B107" s="3">
         <v>45597.46880128199</v>
       </c>
@@ -38096,7 +38160,7 @@
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" s="16"/>
+      <c r="A108" s="13"/>
       <c r="B108" s="3">
         <v>45597.469392130712</v>
       </c>
@@ -38109,7 +38173,7 @@
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="17"/>
+      <c r="A109" s="14"/>
       <c r="B109" s="3">
         <v>45597.471998493471</v>
       </c>
@@ -38122,7 +38186,7 @@
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="15" t="s">
+      <c r="A110" s="12" t="s">
         <v>9</v>
       </c>
       <c r="B110" s="3">
@@ -38137,7 +38201,7 @@
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="16"/>
+      <c r="A111" s="13"/>
       <c r="B111" s="3">
         <v>45597.477245633083</v>
       </c>
@@ -38150,7 +38214,7 @@
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" s="16"/>
+      <c r="A112" s="13"/>
       <c r="B112" s="3">
         <v>45597.476618326473</v>
       </c>
@@ -38163,7 +38227,7 @@
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" s="16"/>
+      <c r="A113" s="13"/>
       <c r="B113" s="3">
         <v>45597.476347200776</v>
       </c>
@@ -38176,7 +38240,7 @@
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" s="16"/>
+      <c r="A114" s="13"/>
       <c r="B114" s="3">
         <v>45597.477145392557</v>
       </c>
@@ -38189,7 +38253,7 @@
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" s="16"/>
+      <c r="A115" s="13"/>
       <c r="B115" s="3">
         <v>45597.477710559891</v>
       </c>
@@ -38202,7 +38266,7 @@
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" s="16"/>
+      <c r="A116" s="13"/>
       <c r="B116" s="3">
         <v>45597.477759541667</v>
       </c>
@@ -38215,7 +38279,7 @@
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" s="16"/>
+      <c r="A117" s="13"/>
       <c r="B117" s="3">
         <v>45597.478708491348</v>
       </c>
@@ -38228,7 +38292,7 @@
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" s="16"/>
+      <c r="A118" s="13"/>
       <c r="B118" s="3">
         <v>45597.479297328857</v>
       </c>
@@ -38241,7 +38305,7 @@
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" s="16"/>
+      <c r="A119" s="13"/>
       <c r="B119" s="3">
         <v>45597.479595442543</v>
       </c>
@@ -38254,7 +38318,7 @@
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" s="16"/>
+      <c r="A120" s="13"/>
       <c r="B120" s="3">
         <v>45597.48060331848</v>
       </c>
@@ -38267,7 +38331,7 @@
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" s="17"/>
+      <c r="A121" s="14"/>
       <c r="B121" s="3">
         <v>45597.481518974491</v>
       </c>
@@ -38280,7 +38344,7 @@
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" s="15" t="s">
+      <c r="A122" s="12" t="s">
         <v>10</v>
       </c>
       <c r="B122" s="3">
@@ -38295,7 +38359,7 @@
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" s="16"/>
+      <c r="A123" s="13"/>
       <c r="B123" s="3">
         <v>45597.491510639426</v>
       </c>
@@ -38308,7 +38372,7 @@
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" s="16"/>
+      <c r="A124" s="13"/>
       <c r="B124" s="3">
         <v>45597.491086621834</v>
       </c>
@@ -38321,7 +38385,7 @@
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" s="16"/>
+      <c r="A125" s="13"/>
       <c r="B125" s="3">
         <v>45597.49083323541</v>
       </c>
@@ -38334,7 +38398,7 @@
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" s="16"/>
+      <c r="A126" s="13"/>
       <c r="B126" s="3">
         <v>45597.491524387449</v>
       </c>
@@ -38347,7 +38411,7 @@
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" s="16"/>
+      <c r="A127" s="13"/>
       <c r="B127" s="3">
         <v>45597.491894716979</v>
       </c>
@@ -38360,7 +38424,7 @@
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" s="16"/>
+      <c r="A128" s="13"/>
       <c r="B128" s="3">
         <v>45597.492303699699</v>
       </c>
@@ -38373,7 +38437,7 @@
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129" s="16"/>
+      <c r="A129" s="13"/>
       <c r="B129" s="3">
         <v>45597.49273661014</v>
       </c>
@@ -38386,7 +38450,7 @@
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130" s="16"/>
+      <c r="A130" s="13"/>
       <c r="B130" s="3">
         <v>45597.493025513111</v>
       </c>
@@ -38399,7 +38463,7 @@
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131" s="16"/>
+      <c r="A131" s="13"/>
       <c r="B131" s="3">
         <v>45597.493556898058</v>
       </c>
@@ -38412,7 +38476,7 @@
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A132" s="16"/>
+      <c r="A132" s="13"/>
       <c r="B132" s="3">
         <v>45597.494353298935</v>
       </c>
@@ -38425,7 +38489,7 @@
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" s="17"/>
+      <c r="A133" s="14"/>
       <c r="B133" s="3">
         <v>45597.494618653203</v>
       </c>
@@ -38438,7 +38502,7 @@
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134" s="15" t="s">
+      <c r="A134" s="12" t="s">
         <v>11</v>
       </c>
       <c r="B134" s="3">
@@ -38453,7 +38517,7 @@
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135" s="16"/>
+      <c r="A135" s="13"/>
       <c r="B135" s="3">
         <v>45597.50590836125</v>
       </c>
@@ -38466,7 +38530,7 @@
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" s="16"/>
+      <c r="A136" s="13"/>
       <c r="B136" s="3">
         <v>45597.506587549513</v>
       </c>
@@ -38479,7 +38543,7 @@
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137" s="16"/>
+      <c r="A137" s="13"/>
       <c r="B137" s="3">
         <v>45597.506305216026</v>
       </c>
@@ -38492,7 +38556,7 @@
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A138" s="16"/>
+      <c r="A138" s="13"/>
       <c r="B138" s="3">
         <v>45597.506623198242</v>
       </c>
@@ -38505,7 +38569,7 @@
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A139" s="16"/>
+      <c r="A139" s="13"/>
       <c r="B139" s="3">
         <v>45597.50740544618</v>
       </c>
@@ -38518,7 +38582,7 @@
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A140" s="16"/>
+      <c r="A140" s="13"/>
       <c r="B140" s="3">
         <v>45597.507361116943</v>
       </c>
@@ -38531,7 +38595,7 @@
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A141" s="16"/>
+      <c r="A141" s="13"/>
       <c r="B141" s="3">
         <v>45597.508426536726</v>
       </c>
@@ -38544,7 +38608,7 @@
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A142" s="16"/>
+      <c r="A142" s="13"/>
       <c r="B142" s="3">
         <v>45597.508574225365</v>
       </c>
@@ -38557,7 +38621,7 @@
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143" s="16"/>
+      <c r="A143" s="13"/>
       <c r="B143" s="3">
         <v>45597.5089836064</v>
       </c>
@@ -38570,7 +38634,7 @@
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A144" s="16"/>
+      <c r="A144" s="13"/>
       <c r="B144" s="3">
         <v>45597.509395182744</v>
       </c>
@@ -38583,7 +38647,7 @@
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145" s="17"/>
+      <c r="A145" s="14"/>
       <c r="B145" s="3">
         <v>45597.510007863515</v>
       </c>
@@ -38596,7 +38660,7 @@
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146" s="15" t="s">
+      <c r="A146" s="12" t="s">
         <v>12</v>
       </c>
       <c r="B146" s="3">
@@ -38611,7 +38675,7 @@
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A147" s="16"/>
+      <c r="A147" s="13"/>
       <c r="B147" s="3">
         <v>45597.588523920655</v>
       </c>
@@ -38624,7 +38688,7 @@
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148" s="16"/>
+      <c r="A148" s="13"/>
       <c r="B148" s="3">
         <v>45597.588674484177</v>
       </c>
@@ -38637,7 +38701,7 @@
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" s="16"/>
+      <c r="A149" s="13"/>
       <c r="B149" s="3">
         <v>45597.589199750415</v>
       </c>
@@ -38650,7 +38714,7 @@
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150" s="16"/>
+      <c r="A150" s="13"/>
       <c r="B150" s="3">
         <v>45597.589902242973</v>
       </c>
@@ -38663,7 +38727,7 @@
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" s="16"/>
+      <c r="A151" s="13"/>
       <c r="B151" s="3">
         <v>45597.590192304073</v>
       </c>
@@ -38676,7 +38740,7 @@
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" s="16"/>
+      <c r="A152" s="13"/>
       <c r="B152" s="3">
         <v>45597.591202957701</v>
       </c>
@@ -38689,7 +38753,7 @@
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" s="16"/>
+      <c r="A153" s="13"/>
       <c r="B153" s="3">
         <v>45597.591150134598</v>
       </c>
@@ -38702,7 +38766,7 @@
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" s="16"/>
+      <c r="A154" s="13"/>
       <c r="B154" s="3">
         <v>45597.590959216279</v>
       </c>
@@ -38715,7 +38779,7 @@
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155" s="16"/>
+      <c r="A155" s="13"/>
       <c r="B155" s="3">
         <v>45597.591630098403</v>
       </c>
@@ -38728,7 +38792,7 @@
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A156" s="16"/>
+      <c r="A156" s="13"/>
       <c r="B156" s="3">
         <v>45597.591851529811</v>
       </c>
@@ -38741,7 +38805,7 @@
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157" s="17"/>
+      <c r="A157" s="14"/>
       <c r="B157" s="3">
         <v>45597.592161787812</v>
       </c>
@@ -38754,7 +38818,7 @@
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A158" s="15" t="s">
+      <c r="A158" s="12" t="s">
         <v>13</v>
       </c>
       <c r="B158" s="3">
@@ -38769,7 +38833,7 @@
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A159" s="16"/>
+      <c r="A159" s="13"/>
       <c r="B159" s="3">
         <v>45597.600374791924</v>
       </c>
@@ -38782,7 +38846,7 @@
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A160" s="16"/>
+      <c r="A160" s="13"/>
       <c r="B160" s="3">
         <v>45597.600683098171</v>
       </c>
@@ -38795,7 +38859,7 @@
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A161" s="16"/>
+      <c r="A161" s="13"/>
       <c r="B161" s="3">
         <v>45597.600687575112</v>
       </c>
@@ -38808,7 +38872,7 @@
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A162" s="16"/>
+      <c r="A162" s="13"/>
       <c r="B162" s="3">
         <v>45597.601718553095</v>
       </c>
@@ -38821,7 +38885,7 @@
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A163" s="16"/>
+      <c r="A163" s="13"/>
       <c r="B163" s="3">
         <v>45597.601852281281</v>
       </c>
@@ -38834,7 +38898,7 @@
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A164" s="16"/>
+      <c r="A164" s="13"/>
       <c r="B164" s="3">
         <v>45597.602688960804</v>
       </c>
@@ -38847,7 +38911,7 @@
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A165" s="16"/>
+      <c r="A165" s="13"/>
       <c r="B165" s="3">
         <v>45597.60339561983</v>
       </c>
@@ -38860,7 +38924,7 @@
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A166" s="16"/>
+      <c r="A166" s="13"/>
       <c r="B166" s="3">
         <v>45597.603702426793</v>
       </c>
@@ -38873,7 +38937,7 @@
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A167" s="16"/>
+      <c r="A167" s="13"/>
       <c r="B167" s="3">
         <v>45597.604461083218</v>
       </c>
@@ -38886,7 +38950,7 @@
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A168" s="16"/>
+      <c r="A168" s="13"/>
       <c r="B168" s="3">
         <v>45597.604908502588</v>
       </c>
@@ -38899,7 +38963,7 @@
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A169" s="17"/>
+      <c r="A169" s="14"/>
       <c r="B169" s="3">
         <v>45597.605097198728</v>
       </c>
@@ -38912,7 +38976,7 @@
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A170" s="15" t="s">
+      <c r="A170" s="12" t="s">
         <v>14</v>
       </c>
       <c r="B170" s="3">
@@ -38927,7 +38991,7 @@
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A171" s="16"/>
+      <c r="A171" s="13"/>
       <c r="B171" s="3">
         <v>45597.615058497351</v>
       </c>
@@ -38940,7 +39004,7 @@
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A172" s="16"/>
+      <c r="A172" s="13"/>
       <c r="B172" s="3">
         <v>45597.61628193155</v>
       </c>
@@ -38953,7 +39017,7 @@
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A173" s="16"/>
+      <c r="A173" s="13"/>
       <c r="B173" s="3">
         <v>45597.616464194609</v>
       </c>
@@ -38966,7 +39030,7 @@
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A174" s="16"/>
+      <c r="A174" s="13"/>
       <c r="B174" s="3">
         <v>45597.616647804825</v>
       </c>
@@ -38979,7 +39043,7 @@
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A175" s="16"/>
+      <c r="A175" s="13"/>
       <c r="B175" s="3">
         <v>45597.617534277328</v>
       </c>
@@ -38992,7 +39056,7 @@
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A176" s="16"/>
+      <c r="A176" s="13"/>
       <c r="B176" s="3">
         <v>45597.617976658796</v>
       </c>
@@ -39005,7 +39069,7 @@
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A177" s="16"/>
+      <c r="A177" s="13"/>
       <c r="B177" s="3">
         <v>45597.618348713862</v>
       </c>
@@ -39018,7 +39082,7 @@
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A178" s="16"/>
+      <c r="A178" s="13"/>
       <c r="B178" s="3">
         <v>45597.619035262207</v>
       </c>
@@ -39031,7 +39095,7 @@
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A179" s="16"/>
+      <c r="A179" s="13"/>
       <c r="B179" s="3">
         <v>45597.619251889701</v>
       </c>
@@ -39044,7 +39108,7 @@
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A180" s="16"/>
+      <c r="A180" s="13"/>
       <c r="B180" s="3">
         <v>45597.620449103808</v>
       </c>
@@ -39057,7 +39121,7 @@
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A181" s="17"/>
+      <c r="A181" s="14"/>
       <c r="B181" s="3">
         <v>45597.621266333052</v>
       </c>
@@ -39070,7 +39134,7 @@
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A182" s="15" t="s">
+      <c r="A182" s="12" t="s">
         <v>15</v>
       </c>
       <c r="B182" s="3">
@@ -39085,7 +39149,7 @@
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A183" s="16"/>
+      <c r="A183" s="13"/>
       <c r="B183" s="3">
         <v>45597.630856000018</v>
       </c>
@@ -39098,7 +39162,7 @@
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A184" s="16"/>
+      <c r="A184" s="13"/>
       <c r="B184" s="3">
         <v>45597.630383961092</v>
       </c>
@@ -39111,7 +39175,7 @@
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A185" s="16"/>
+      <c r="A185" s="13"/>
       <c r="B185" s="3">
         <v>45597.630693117055</v>
       </c>
@@ -39124,7 +39188,7 @@
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A186" s="16"/>
+      <c r="A186" s="13"/>
       <c r="B186" s="3">
         <v>45597.631808207603</v>
       </c>
@@ -39137,7 +39201,7 @@
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A187" s="16"/>
+      <c r="A187" s="13"/>
       <c r="B187" s="3">
         <v>45597.631759160089</v>
       </c>
@@ -39150,7 +39214,7 @@
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A188" s="16"/>
+      <c r="A188" s="13"/>
       <c r="B188" s="3">
         <v>45597.631919906431</v>
       </c>
@@ -39163,7 +39227,7 @@
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A189" s="16"/>
+      <c r="A189" s="13"/>
       <c r="B189" s="3">
         <v>45597.632906224928</v>
       </c>
@@ -39176,7 +39240,7 @@
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A190" s="16"/>
+      <c r="A190" s="13"/>
       <c r="B190" s="3">
         <v>45597.633469424953</v>
       </c>
@@ -39189,7 +39253,7 @@
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A191" s="16"/>
+      <c r="A191" s="13"/>
       <c r="B191" s="3">
         <v>45597.633525851801</v>
       </c>
@@ -39202,7 +39266,7 @@
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A192" s="16"/>
+      <c r="A192" s="13"/>
       <c r="B192" s="3">
         <v>45597.634091943532</v>
       </c>
@@ -39215,7 +39279,7 @@
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A193" s="17"/>
+      <c r="A193" s="14"/>
       <c r="B193" s="3">
         <v>45597.635004833508</v>
       </c>
@@ -39229,6 +39293,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A62:A73"/>
+    <mergeCell ref="A2:A13"/>
+    <mergeCell ref="A14:A25"/>
+    <mergeCell ref="A26:A37"/>
+    <mergeCell ref="A38:A49"/>
+    <mergeCell ref="A50:A61"/>
     <mergeCell ref="A146:A157"/>
     <mergeCell ref="A158:A169"/>
     <mergeCell ref="A170:A181"/>
@@ -39239,12 +39309,6 @@
     <mergeCell ref="A110:A121"/>
     <mergeCell ref="A122:A133"/>
     <mergeCell ref="A134:A145"/>
-    <mergeCell ref="A62:A73"/>
-    <mergeCell ref="A2:A13"/>
-    <mergeCell ref="A14:A25"/>
-    <mergeCell ref="A26:A37"/>
-    <mergeCell ref="A38:A49"/>
-    <mergeCell ref="A50:A61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/datos.xlsx
+++ b/datos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9279ab3caa12efcc/Escritorio/AbrahamBohorquez/AM5_ModelosProbabilisticos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="226" documentId="13_ncr:1_{E959672A-8864-4869-BABD-6599D690D941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D3D7B4D9-8E57-41DC-8E66-CD251BFCF6AC}"/>
+  <xr:revisionPtr revIDLastSave="239" documentId="13_ncr:1_{E959672A-8864-4869-BABD-6599D690D941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A15E5AF3-E4CB-48F1-8784-08DC98350E45}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Llegadas" sheetId="1" r:id="rId1"/>
@@ -329,6 +329,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -336,15 +345,6 @@
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -653,7 +653,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F657"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="137" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -690,8 +690,8 @@
       </c>
       <c r="E2" s="8"/>
       <c r="F2" s="7">
-        <f>1/(AVERAGE(D2:D41)*24*60)</f>
-        <v>11.233081224161367</v>
+        <f>1/(AVERAGE(D2:D656)*24*60)</f>
+        <v>10.235068026175794</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -7883,11 +7883,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A453:A493"/>
-    <mergeCell ref="A494:A534"/>
-    <mergeCell ref="A535:A575"/>
-    <mergeCell ref="A576:A616"/>
-    <mergeCell ref="A617:A657"/>
     <mergeCell ref="A412:A452"/>
     <mergeCell ref="A2:A42"/>
     <mergeCell ref="A43:A83"/>
@@ -7899,6 +7894,11 @@
     <mergeCell ref="A289:A329"/>
     <mergeCell ref="A330:A370"/>
     <mergeCell ref="A371:A411"/>
+    <mergeCell ref="A453:A493"/>
+    <mergeCell ref="A494:A534"/>
+    <mergeCell ref="A535:A575"/>
+    <mergeCell ref="A576:A616"/>
+    <mergeCell ref="A617:A657"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12122,8 +12122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3BD963C-A6FA-41BF-AAC0-054BD7482F91}">
   <dimension ref="A1:G405"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A355" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12160,8 +12160,8 @@
         <v>4.3420311703812331E-4</v>
       </c>
       <c r="G2" s="7">
-        <f>1/(AVERAGE(E2:E41)*24*60)</f>
-        <v>2.6475089946842267</v>
+        <f>1/(AVERAGE(E2:E405)*24*60)</f>
+        <v>2.8303106324399976</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -17435,12 +17435,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A128:A150"/>
-    <mergeCell ref="A2:A26"/>
-    <mergeCell ref="A27:A52"/>
-    <mergeCell ref="A53:A80"/>
-    <mergeCell ref="A81:A103"/>
-    <mergeCell ref="A104:A127"/>
     <mergeCell ref="A312:A336"/>
     <mergeCell ref="A337:A359"/>
     <mergeCell ref="A360:A382"/>
@@ -17451,6 +17445,12 @@
     <mergeCell ref="A231:A254"/>
     <mergeCell ref="A255:A285"/>
     <mergeCell ref="A286:A311"/>
+    <mergeCell ref="A128:A150"/>
+    <mergeCell ref="A2:A26"/>
+    <mergeCell ref="A27:A52"/>
+    <mergeCell ref="A53:A80"/>
+    <mergeCell ref="A81:A103"/>
+    <mergeCell ref="A104:A127"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -19507,7 +19507,7 @@
   <dimension ref="A1:K405"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19552,8 +19552,8 @@
         <v>4.3186097173020244E-5</v>
       </c>
       <c r="H2" s="7">
-        <f>1/(AVERAGE(F2:F41)*24*60)</f>
-        <v>4.0828387429364099</v>
+        <f>1/(AVERAGE(F2:F405)*24*60)</f>
+        <v>3.8378180809534248</v>
       </c>
       <c r="I2" t="s">
         <v>25</v>
@@ -26053,12 +26053,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A128:A150"/>
-    <mergeCell ref="A2:A26"/>
-    <mergeCell ref="A27:A52"/>
-    <mergeCell ref="A53:A80"/>
-    <mergeCell ref="A81:A103"/>
-    <mergeCell ref="A104:A127"/>
     <mergeCell ref="A312:A336"/>
     <mergeCell ref="A337:A359"/>
     <mergeCell ref="A360:A382"/>
@@ -26069,6 +26063,12 @@
     <mergeCell ref="A231:A254"/>
     <mergeCell ref="A255:A285"/>
     <mergeCell ref="A286:A311"/>
+    <mergeCell ref="A128:A150"/>
+    <mergeCell ref="A2:A26"/>
+    <mergeCell ref="A27:A52"/>
+    <mergeCell ref="A53:A80"/>
+    <mergeCell ref="A81:A103"/>
+    <mergeCell ref="A104:A127"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -28122,8 +28122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A0B6301-A7D0-47D9-8DF9-07B431483CBF}">
   <dimension ref="A1:K405"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28167,8 +28167,8 @@
         <v>6.674107862636447E-5</v>
       </c>
       <c r="H2" s="7">
-        <f>1/(AVERAGE(F2:F41)*24*60)</f>
-        <v>10.978609964027749</v>
+        <f>1/(AVERAGE(F2:F405)*24*60)</f>
+        <v>11.031616383557017</v>
       </c>
       <c r="I2" t="s">
         <v>25</v>
@@ -34668,12 +34668,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A128:A150"/>
-    <mergeCell ref="A2:A26"/>
-    <mergeCell ref="A27:A52"/>
-    <mergeCell ref="A53:A80"/>
-    <mergeCell ref="A81:A103"/>
-    <mergeCell ref="A104:A127"/>
     <mergeCell ref="A312:A336"/>
     <mergeCell ref="A337:A359"/>
     <mergeCell ref="A360:A382"/>
@@ -34684,6 +34678,12 @@
     <mergeCell ref="A231:A254"/>
     <mergeCell ref="A255:A285"/>
     <mergeCell ref="A286:A311"/>
+    <mergeCell ref="A128:A150"/>
+    <mergeCell ref="A2:A26"/>
+    <mergeCell ref="A27:A52"/>
+    <mergeCell ref="A53:A80"/>
+    <mergeCell ref="A81:A103"/>
+    <mergeCell ref="A104:A127"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -36737,7 +36737,7 @@
   <dimension ref="A1:G193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36760,7 +36760,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3">
@@ -36774,12 +36774,12 @@
         <v>7.3663346120156348E-4</v>
       </c>
       <c r="G2" s="7">
-        <f>1/(AVERAGE(E2:E41)*24*60)</f>
-        <v>0.36107439188299961</v>
+        <f>1/(AVERAGE(E2:E193)*24*60)</f>
+        <v>0.32443013670500326</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
+      <c r="A3" s="13"/>
       <c r="B3" s="3">
         <v>45596.279630103367</v>
       </c>
@@ -36792,7 +36792,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
+      <c r="A4" s="13"/>
       <c r="B4" s="3">
         <v>45596.278661823315</v>
       </c>
@@ -36805,7 +36805,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
+      <c r="A5" s="13"/>
       <c r="B5" s="3">
         <v>45596.280308721558</v>
       </c>
@@ -36818,7 +36818,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
+      <c r="A6" s="13"/>
       <c r="B6" s="3">
         <v>45596.280505727118</v>
       </c>
@@ -36831,7 +36831,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
+      <c r="A7" s="13"/>
       <c r="B7" s="3">
         <v>45596.281465458349</v>
       </c>
@@ -36844,7 +36844,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
+      <c r="A8" s="13"/>
       <c r="B8" s="3">
         <v>45596.28101967791</v>
       </c>
@@ -36857,7 +36857,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
+      <c r="A9" s="13"/>
       <c r="B9" s="3">
         <v>45596.281628472352</v>
       </c>
@@ -36870,7 +36870,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
+      <c r="A10" s="13"/>
       <c r="B10" s="3">
         <v>45596.28204395288</v>
       </c>
@@ -36883,7 +36883,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
+      <c r="A11" s="13"/>
       <c r="B11" s="3">
         <v>45596.282498590532</v>
       </c>
@@ -36896,7 +36896,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
+      <c r="A12" s="13"/>
       <c r="B12" s="3">
         <v>45596.282633844225</v>
       </c>
@@ -36909,7 +36909,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
+      <c r="A13" s="14"/>
       <c r="B13" s="3">
         <v>45596.282980186894</v>
       </c>
@@ -36922,7 +36922,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B14" s="3">
@@ -36937,7 +36937,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="16"/>
+      <c r="A15" s="13"/>
       <c r="B15" s="3">
         <v>45596.289981059032</v>
       </c>
@@ -36950,7 +36950,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
+      <c r="A16" s="13"/>
       <c r="B16" s="3">
         <v>45596.291957806694</v>
       </c>
@@ -36963,7 +36963,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
+      <c r="A17" s="13"/>
       <c r="B17" s="3">
         <v>45596.29215487514</v>
       </c>
@@ -36976,7 +36976,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
+      <c r="A18" s="13"/>
       <c r="B18" s="3">
         <v>45596.293227696464</v>
       </c>
@@ -36989,7 +36989,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="16"/>
+      <c r="A19" s="13"/>
       <c r="B19" s="3">
         <v>45596.292723197199</v>
       </c>
@@ -37002,7 +37002,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="16"/>
+      <c r="A20" s="13"/>
       <c r="B20" s="3">
         <v>45596.293026780913</v>
       </c>
@@ -37015,7 +37015,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="16"/>
+      <c r="A21" s="13"/>
       <c r="B21" s="3">
         <v>45596.293643496181</v>
       </c>
@@ -37028,7 +37028,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="16"/>
+      <c r="A22" s="13"/>
       <c r="B22" s="3">
         <v>45596.293416672539</v>
       </c>
@@ -37041,7 +37041,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="16"/>
+      <c r="A23" s="13"/>
       <c r="B23" s="3">
         <v>45596.294246545483</v>
       </c>
@@ -37054,7 +37054,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="16"/>
+      <c r="A24" s="13"/>
       <c r="B24" s="3">
         <v>45596.294305811549</v>
       </c>
@@ -37067,7 +37067,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="17"/>
+      <c r="A25" s="14"/>
       <c r="B25" s="3">
         <v>45596.295521247499</v>
       </c>
@@ -37080,7 +37080,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="15" t="s">
         <v>2</v>
       </c>
       <c r="B26" s="3">
@@ -37095,7 +37095,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="13"/>
+      <c r="A27" s="16"/>
       <c r="B27" s="3">
         <v>45596.3027643764</v>
       </c>
@@ -37108,7 +37108,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="13"/>
+      <c r="A28" s="16"/>
       <c r="B28" s="3">
         <v>45596.302381210466</v>
       </c>
@@ -37121,7 +37121,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="13"/>
+      <c r="A29" s="16"/>
       <c r="B29" s="3">
         <v>45596.30376339244</v>
       </c>
@@ -37134,7 +37134,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="13"/>
+      <c r="A30" s="16"/>
       <c r="B30" s="3">
         <v>45596.304152794779</v>
       </c>
@@ -37147,7 +37147,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="13"/>
+      <c r="A31" s="16"/>
       <c r="B31" s="3">
         <v>45596.304466689333</v>
       </c>
@@ -37160,7 +37160,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="13"/>
+      <c r="A32" s="16"/>
       <c r="B32" s="3">
         <v>45596.305226463104</v>
       </c>
@@ -37173,7 +37173,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="13"/>
+      <c r="A33" s="16"/>
       <c r="B33" s="3">
         <v>45596.305699286633</v>
       </c>
@@ -37186,7 +37186,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="13"/>
+      <c r="A34" s="16"/>
       <c r="B34" s="3">
         <v>45596.306185679001</v>
       </c>
@@ -37199,7 +37199,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="13"/>
+      <c r="A35" s="16"/>
       <c r="B35" s="3">
         <v>45596.30585123285</v>
       </c>
@@ -37212,7 +37212,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="13"/>
+      <c r="A36" s="16"/>
       <c r="B36" s="3">
         <v>45596.306662201161</v>
       </c>
@@ -37225,7 +37225,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="14"/>
+      <c r="A37" s="17"/>
       <c r="B37" s="3">
         <v>45596.306669837242</v>
       </c>
@@ -37238,7 +37238,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="15" t="s">
+      <c r="A38" s="12" t="s">
         <v>3</v>
       </c>
       <c r="B38" s="3">
@@ -37253,7 +37253,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="16"/>
+      <c r="A39" s="13"/>
       <c r="B39" s="3">
         <v>45596.318116918497</v>
       </c>
@@ -37266,7 +37266,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="16"/>
+      <c r="A40" s="13"/>
       <c r="B40" s="3">
         <v>45596.317846643717</v>
       </c>
@@ -37279,7 +37279,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="16"/>
+      <c r="A41" s="13"/>
       <c r="B41" s="3">
         <v>45596.318479804584</v>
       </c>
@@ -37292,7 +37292,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="16"/>
+      <c r="A42" s="13"/>
       <c r="B42" s="3">
         <v>45596.319354770145</v>
       </c>
@@ -37305,7 +37305,7 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="16"/>
+      <c r="A43" s="13"/>
       <c r="B43" s="3">
         <v>45596.319143625093</v>
       </c>
@@ -37318,7 +37318,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="16"/>
+      <c r="A44" s="13"/>
       <c r="B44" s="3">
         <v>45596.319424010435</v>
       </c>
@@ -37331,7 +37331,7 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="16"/>
+      <c r="A45" s="13"/>
       <c r="B45" s="3">
         <v>45596.320443239347</v>
       </c>
@@ -37344,7 +37344,7 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="16"/>
+      <c r="A46" s="13"/>
       <c r="B46" s="3">
         <v>45596.320715158683</v>
       </c>
@@ -37357,7 +37357,7 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="16"/>
+      <c r="A47" s="13"/>
       <c r="B47" s="3">
         <v>45596.321603423399</v>
       </c>
@@ -37370,7 +37370,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="16"/>
+      <c r="A48" s="13"/>
       <c r="B48" s="3">
         <v>45596.322033754754</v>
       </c>
@@ -37383,7 +37383,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="17"/>
+      <c r="A49" s="14"/>
       <c r="B49" s="3">
         <v>45596.323123124661</v>
       </c>
@@ -37396,7 +37396,7 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="12" t="s">
+      <c r="A50" s="15" t="s">
         <v>4</v>
       </c>
       <c r="B50" s="3">
@@ -37411,7 +37411,7 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="13"/>
+      <c r="A51" s="16"/>
       <c r="B51" s="3">
         <v>45596.342547410379</v>
       </c>
@@ -37424,7 +37424,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="13"/>
+      <c r="A52" s="16"/>
       <c r="B52" s="3">
         <v>45596.342987728553</v>
       </c>
@@ -37437,7 +37437,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="13"/>
+      <c r="A53" s="16"/>
       <c r="B53" s="3">
         <v>45596.343435754919</v>
       </c>
@@ -37450,7 +37450,7 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="13"/>
+      <c r="A54" s="16"/>
       <c r="B54" s="3">
         <v>45596.343896896717</v>
       </c>
@@ -37463,7 +37463,7 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="13"/>
+      <c r="A55" s="16"/>
       <c r="B55" s="3">
         <v>45596.344481862878</v>
       </c>
@@ -37476,7 +37476,7 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="13"/>
+      <c r="A56" s="16"/>
       <c r="B56" s="3">
         <v>45596.345003128248</v>
       </c>
@@ -37489,7 +37489,7 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="13"/>
+      <c r="A57" s="16"/>
       <c r="B57" s="3">
         <v>45596.34582160366</v>
       </c>
@@ -37502,7 +37502,7 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="13"/>
+      <c r="A58" s="16"/>
       <c r="B58" s="3">
         <v>45596.345367588008</v>
       </c>
@@ -37515,7 +37515,7 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="13"/>
+      <c r="A59" s="16"/>
       <c r="B59" s="3">
         <v>45596.345513411252</v>
       </c>
@@ -37528,7 +37528,7 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="13"/>
+      <c r="A60" s="16"/>
       <c r="B60" s="3">
         <v>45596.34524319195</v>
       </c>
@@ -37541,7 +37541,7 @@
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="14"/>
+      <c r="A61" s="17"/>
       <c r="B61" s="3">
         <v>45596.346085919336</v>
       </c>
@@ -37554,7 +37554,7 @@
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="15" t="s">
+      <c r="A62" s="12" t="s">
         <v>5</v>
       </c>
       <c r="B62" s="3">
@@ -37569,7 +37569,7 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="16"/>
+      <c r="A63" s="13"/>
       <c r="B63" s="3">
         <v>45596.351150985261</v>
       </c>
@@ -37582,7 +37582,7 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="16"/>
+      <c r="A64" s="13"/>
       <c r="B64" s="3">
         <v>45596.3522129993</v>
       </c>
@@ -37595,7 +37595,7 @@
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="16"/>
+      <c r="A65" s="13"/>
       <c r="B65" s="3">
         <v>45596.352316286044</v>
       </c>
@@ -37608,7 +37608,7 @@
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="16"/>
+      <c r="A66" s="13"/>
       <c r="B66" s="3">
         <v>45596.353367675139</v>
       </c>
@@ -37621,7 +37621,7 @@
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="16"/>
+      <c r="A67" s="13"/>
       <c r="B67" s="3">
         <v>45596.354698966468</v>
       </c>
@@ -37634,7 +37634,7 @@
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="16"/>
+      <c r="A68" s="13"/>
       <c r="B68" s="3">
         <v>45596.355811664682</v>
       </c>
@@ -37647,7 +37647,7 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="16"/>
+      <c r="A69" s="13"/>
       <c r="B69" s="3">
         <v>45596.355371921913</v>
       </c>
@@ -37660,7 +37660,7 @@
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="16"/>
+      <c r="A70" s="13"/>
       <c r="B70" s="3">
         <v>45596.35488974554</v>
       </c>
@@ -37673,7 +37673,7 @@
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="16"/>
+      <c r="A71" s="13"/>
       <c r="B71" s="3">
         <v>45596.356135344038</v>
       </c>
@@ -37686,7 +37686,7 @@
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="16"/>
+      <c r="A72" s="13"/>
       <c r="B72" s="3">
         <v>45596.356519564542</v>
       </c>
@@ -37699,7 +37699,7 @@
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="17"/>
+      <c r="A73" s="14"/>
       <c r="B73" s="3">
         <v>45596.357087898439</v>
       </c>
@@ -37712,7 +37712,7 @@
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="12" t="s">
+      <c r="A74" s="15" t="s">
         <v>6</v>
       </c>
       <c r="B74" s="3">
@@ -37727,7 +37727,7 @@
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="13"/>
+      <c r="A75" s="16"/>
       <c r="B75" s="3">
         <v>45596.365423767711</v>
       </c>
@@ -37740,7 +37740,7 @@
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="13"/>
+      <c r="A76" s="16"/>
       <c r="B76" s="3">
         <v>45596.365497554223</v>
       </c>
@@ -37753,7 +37753,7 @@
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="13"/>
+      <c r="A77" s="16"/>
       <c r="B77" s="3">
         <v>45596.365956459231</v>
       </c>
@@ -37766,7 +37766,7 @@
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="13"/>
+      <c r="A78" s="16"/>
       <c r="B78" s="3">
         <v>45596.367387387778</v>
       </c>
@@ -37779,7 +37779,7 @@
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="13"/>
+      <c r="A79" s="16"/>
       <c r="B79" s="3">
         <v>45596.367334964969</v>
       </c>
@@ -37792,7 +37792,7 @@
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="13"/>
+      <c r="A80" s="16"/>
       <c r="B80" s="3">
         <v>45596.367987875667</v>
       </c>
@@ -37805,7 +37805,7 @@
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="13"/>
+      <c r="A81" s="16"/>
       <c r="B81" s="3">
         <v>45596.368861277595</v>
       </c>
@@ -37818,7 +37818,7 @@
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="13"/>
+      <c r="A82" s="16"/>
       <c r="B82" s="3">
         <v>45596.368738777557</v>
       </c>
@@ -37831,7 +37831,7 @@
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="13"/>
+      <c r="A83" s="16"/>
       <c r="B83" s="3">
         <v>45596.369423175311</v>
       </c>
@@ -37844,7 +37844,7 @@
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="13"/>
+      <c r="A84" s="16"/>
       <c r="B84" s="3">
         <v>45596.370974944031</v>
       </c>
@@ -37857,7 +37857,7 @@
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="14"/>
+      <c r="A85" s="17"/>
       <c r="B85" s="3">
         <v>45596.370983952933</v>
       </c>
@@ -37870,7 +37870,7 @@
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="12" t="s">
+      <c r="A86" s="15" t="s">
         <v>7</v>
       </c>
       <c r="B86" s="3">
@@ -37885,7 +37885,7 @@
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="13"/>
+      <c r="A87" s="16"/>
       <c r="B87" s="3">
         <v>45596.380320425436</v>
       </c>
@@ -37898,7 +37898,7 @@
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="13"/>
+      <c r="A88" s="16"/>
       <c r="B88" s="3">
         <v>45596.38031993738</v>
       </c>
@@ -37911,7 +37911,7 @@
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="13"/>
+      <c r="A89" s="16"/>
       <c r="B89" s="3">
         <v>45596.381804360455</v>
       </c>
@@ -37924,7 +37924,7 @@
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="13"/>
+      <c r="A90" s="16"/>
       <c r="B90" s="3">
         <v>45596.382721334856</v>
       </c>
@@ -37937,7 +37937,7 @@
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="13"/>
+      <c r="A91" s="16"/>
       <c r="B91" s="3">
         <v>45596.384516303791</v>
       </c>
@@ -37950,7 +37950,7 @@
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="13"/>
+      <c r="A92" s="16"/>
       <c r="B92" s="3">
         <v>45596.38516345869</v>
       </c>
@@ -37963,7 +37963,7 @@
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="13"/>
+      <c r="A93" s="16"/>
       <c r="B93" s="3">
         <v>45596.383223685472</v>
       </c>
@@ -37976,7 +37976,7 @@
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="13"/>
+      <c r="A94" s="16"/>
       <c r="B94" s="3">
         <v>45596.383939197978</v>
       </c>
@@ -37989,7 +37989,7 @@
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="13"/>
+      <c r="A95" s="16"/>
       <c r="B95" s="3">
         <v>45596.385005933815</v>
       </c>
@@ -38002,7 +38002,7 @@
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="13"/>
+      <c r="A96" s="16"/>
       <c r="B96" s="3">
         <v>45596.383518373572</v>
       </c>
@@ -38015,7 +38015,7 @@
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="14"/>
+      <c r="A97" s="17"/>
       <c r="B97" s="3">
         <v>45596.383164342762</v>
       </c>
@@ -38028,7 +38028,7 @@
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="12" t="s">
+      <c r="A98" s="15" t="s">
         <v>8</v>
       </c>
       <c r="B98" s="3">
@@ -38043,7 +38043,7 @@
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="13"/>
+      <c r="A99" s="16"/>
       <c r="B99" s="3">
         <v>45597.464920890947</v>
       </c>
@@ -38056,7 +38056,7 @@
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="13"/>
+      <c r="A100" s="16"/>
       <c r="B100" s="3">
         <v>45597.463852132132</v>
       </c>
@@ -38069,7 +38069,7 @@
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="13"/>
+      <c r="A101" s="16"/>
       <c r="B101" s="3">
         <v>45597.468366413312</v>
       </c>
@@ -38082,7 +38082,7 @@
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="13"/>
+      <c r="A102" s="16"/>
       <c r="B102" s="3">
         <v>45597.467089733473</v>
       </c>
@@ -38095,7 +38095,7 @@
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="13"/>
+      <c r="A103" s="16"/>
       <c r="B103" s="3">
         <v>45597.467458119667</v>
       </c>
@@ -38108,7 +38108,7 @@
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="13"/>
+      <c r="A104" s="16"/>
       <c r="B104" s="3">
         <v>45597.469490667281</v>
       </c>
@@ -38121,7 +38121,7 @@
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="13"/>
+      <c r="A105" s="16"/>
       <c r="B105" s="3">
         <v>45597.46783633755</v>
       </c>
@@ -38134,7 +38134,7 @@
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="13"/>
+      <c r="A106" s="16"/>
       <c r="B106" s="3">
         <v>45597.468295529987</v>
       </c>
@@ -38147,7 +38147,7 @@
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="13"/>
+      <c r="A107" s="16"/>
       <c r="B107" s="3">
         <v>45597.46880128199</v>
       </c>
@@ -38160,7 +38160,7 @@
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" s="13"/>
+      <c r="A108" s="16"/>
       <c r="B108" s="3">
         <v>45597.469392130712</v>
       </c>
@@ -38173,7 +38173,7 @@
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="14"/>
+      <c r="A109" s="17"/>
       <c r="B109" s="3">
         <v>45597.471998493471</v>
       </c>
@@ -38186,7 +38186,7 @@
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="12" t="s">
+      <c r="A110" s="15" t="s">
         <v>9</v>
       </c>
       <c r="B110" s="3">
@@ -38201,7 +38201,7 @@
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="13"/>
+      <c r="A111" s="16"/>
       <c r="B111" s="3">
         <v>45597.477245633083</v>
       </c>
@@ -38214,7 +38214,7 @@
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" s="13"/>
+      <c r="A112" s="16"/>
       <c r="B112" s="3">
         <v>45597.476618326473</v>
       </c>
@@ -38227,7 +38227,7 @@
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" s="13"/>
+      <c r="A113" s="16"/>
       <c r="B113" s="3">
         <v>45597.476347200776</v>
       </c>
@@ -38240,7 +38240,7 @@
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" s="13"/>
+      <c r="A114" s="16"/>
       <c r="B114" s="3">
         <v>45597.477145392557</v>
       </c>
@@ -38253,7 +38253,7 @@
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" s="13"/>
+      <c r="A115" s="16"/>
       <c r="B115" s="3">
         <v>45597.477710559891</v>
       </c>
@@ -38266,7 +38266,7 @@
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" s="13"/>
+      <c r="A116" s="16"/>
       <c r="B116" s="3">
         <v>45597.477759541667</v>
       </c>
@@ -38279,7 +38279,7 @@
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" s="13"/>
+      <c r="A117" s="16"/>
       <c r="B117" s="3">
         <v>45597.478708491348</v>
       </c>
@@ -38292,7 +38292,7 @@
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" s="13"/>
+      <c r="A118" s="16"/>
       <c r="B118" s="3">
         <v>45597.479297328857</v>
       </c>
@@ -38305,7 +38305,7 @@
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" s="13"/>
+      <c r="A119" s="16"/>
       <c r="B119" s="3">
         <v>45597.479595442543</v>
       </c>
@@ -38318,7 +38318,7 @@
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" s="13"/>
+      <c r="A120" s="16"/>
       <c r="B120" s="3">
         <v>45597.48060331848</v>
       </c>
@@ -38331,7 +38331,7 @@
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" s="14"/>
+      <c r="A121" s="17"/>
       <c r="B121" s="3">
         <v>45597.481518974491</v>
       </c>
@@ -38344,7 +38344,7 @@
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" s="12" t="s">
+      <c r="A122" s="15" t="s">
         <v>10</v>
       </c>
       <c r="B122" s="3">
@@ -38359,7 +38359,7 @@
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" s="13"/>
+      <c r="A123" s="16"/>
       <c r="B123" s="3">
         <v>45597.491510639426</v>
       </c>
@@ -38372,7 +38372,7 @@
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" s="13"/>
+      <c r="A124" s="16"/>
       <c r="B124" s="3">
         <v>45597.491086621834</v>
       </c>
@@ -38385,7 +38385,7 @@
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" s="13"/>
+      <c r="A125" s="16"/>
       <c r="B125" s="3">
         <v>45597.49083323541</v>
       </c>
@@ -38398,7 +38398,7 @@
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" s="13"/>
+      <c r="A126" s="16"/>
       <c r="B126" s="3">
         <v>45597.491524387449</v>
       </c>
@@ -38411,7 +38411,7 @@
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" s="13"/>
+      <c r="A127" s="16"/>
       <c r="B127" s="3">
         <v>45597.491894716979</v>
       </c>
@@ -38424,7 +38424,7 @@
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" s="13"/>
+      <c r="A128" s="16"/>
       <c r="B128" s="3">
         <v>45597.492303699699</v>
       </c>
@@ -38437,7 +38437,7 @@
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129" s="13"/>
+      <c r="A129" s="16"/>
       <c r="B129" s="3">
         <v>45597.49273661014</v>
       </c>
@@ -38450,7 +38450,7 @@
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130" s="13"/>
+      <c r="A130" s="16"/>
       <c r="B130" s="3">
         <v>45597.493025513111</v>
       </c>
@@ -38463,7 +38463,7 @@
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131" s="13"/>
+      <c r="A131" s="16"/>
       <c r="B131" s="3">
         <v>45597.493556898058</v>
       </c>
@@ -38476,7 +38476,7 @@
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A132" s="13"/>
+      <c r="A132" s="16"/>
       <c r="B132" s="3">
         <v>45597.494353298935</v>
       </c>
@@ -38489,7 +38489,7 @@
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" s="14"/>
+      <c r="A133" s="17"/>
       <c r="B133" s="3">
         <v>45597.494618653203</v>
       </c>
@@ -38502,7 +38502,7 @@
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134" s="12" t="s">
+      <c r="A134" s="15" t="s">
         <v>11</v>
       </c>
       <c r="B134" s="3">
@@ -38517,7 +38517,7 @@
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135" s="13"/>
+      <c r="A135" s="16"/>
       <c r="B135" s="3">
         <v>45597.50590836125</v>
       </c>
@@ -38530,7 +38530,7 @@
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" s="13"/>
+      <c r="A136" s="16"/>
       <c r="B136" s="3">
         <v>45597.506587549513</v>
       </c>
@@ -38543,7 +38543,7 @@
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137" s="13"/>
+      <c r="A137" s="16"/>
       <c r="B137" s="3">
         <v>45597.506305216026</v>
       </c>
@@ -38556,7 +38556,7 @@
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A138" s="13"/>
+      <c r="A138" s="16"/>
       <c r="B138" s="3">
         <v>45597.506623198242</v>
       </c>
@@ -38569,7 +38569,7 @@
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A139" s="13"/>
+      <c r="A139" s="16"/>
       <c r="B139" s="3">
         <v>45597.50740544618</v>
       </c>
@@ -38582,7 +38582,7 @@
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A140" s="13"/>
+      <c r="A140" s="16"/>
       <c r="B140" s="3">
         <v>45597.507361116943</v>
       </c>
@@ -38595,7 +38595,7 @@
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A141" s="13"/>
+      <c r="A141" s="16"/>
       <c r="B141" s="3">
         <v>45597.508426536726</v>
       </c>
@@ -38608,7 +38608,7 @@
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A142" s="13"/>
+      <c r="A142" s="16"/>
       <c r="B142" s="3">
         <v>45597.508574225365</v>
       </c>
@@ -38621,7 +38621,7 @@
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143" s="13"/>
+      <c r="A143" s="16"/>
       <c r="B143" s="3">
         <v>45597.5089836064</v>
       </c>
@@ -38634,7 +38634,7 @@
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A144" s="13"/>
+      <c r="A144" s="16"/>
       <c r="B144" s="3">
         <v>45597.509395182744</v>
       </c>
@@ -38647,7 +38647,7 @@
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145" s="14"/>
+      <c r="A145" s="17"/>
       <c r="B145" s="3">
         <v>45597.510007863515</v>
       </c>
@@ -38660,7 +38660,7 @@
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146" s="12" t="s">
+      <c r="A146" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B146" s="3">
@@ -38675,7 +38675,7 @@
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A147" s="13"/>
+      <c r="A147" s="16"/>
       <c r="B147" s="3">
         <v>45597.588523920655</v>
       </c>
@@ -38688,7 +38688,7 @@
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148" s="13"/>
+      <c r="A148" s="16"/>
       <c r="B148" s="3">
         <v>45597.588674484177</v>
       </c>
@@ -38701,7 +38701,7 @@
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" s="13"/>
+      <c r="A149" s="16"/>
       <c r="B149" s="3">
         <v>45597.589199750415</v>
       </c>
@@ -38714,7 +38714,7 @@
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150" s="13"/>
+      <c r="A150" s="16"/>
       <c r="B150" s="3">
         <v>45597.589902242973</v>
       </c>
@@ -38727,7 +38727,7 @@
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" s="13"/>
+      <c r="A151" s="16"/>
       <c r="B151" s="3">
         <v>45597.590192304073</v>
       </c>
@@ -38740,7 +38740,7 @@
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" s="13"/>
+      <c r="A152" s="16"/>
       <c r="B152" s="3">
         <v>45597.591202957701</v>
       </c>
@@ -38753,7 +38753,7 @@
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" s="13"/>
+      <c r="A153" s="16"/>
       <c r="B153" s="3">
         <v>45597.591150134598</v>
       </c>
@@ -38766,7 +38766,7 @@
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" s="13"/>
+      <c r="A154" s="16"/>
       <c r="B154" s="3">
         <v>45597.590959216279</v>
       </c>
@@ -38779,7 +38779,7 @@
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155" s="13"/>
+      <c r="A155" s="16"/>
       <c r="B155" s="3">
         <v>45597.591630098403</v>
       </c>
@@ -38792,7 +38792,7 @@
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A156" s="13"/>
+      <c r="A156" s="16"/>
       <c r="B156" s="3">
         <v>45597.591851529811</v>
       </c>
@@ -38805,7 +38805,7 @@
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157" s="14"/>
+      <c r="A157" s="17"/>
       <c r="B157" s="3">
         <v>45597.592161787812</v>
       </c>
@@ -38818,7 +38818,7 @@
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A158" s="12" t="s">
+      <c r="A158" s="15" t="s">
         <v>13</v>
       </c>
       <c r="B158" s="3">
@@ -38833,7 +38833,7 @@
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A159" s="13"/>
+      <c r="A159" s="16"/>
       <c r="B159" s="3">
         <v>45597.600374791924</v>
       </c>
@@ -38846,7 +38846,7 @@
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A160" s="13"/>
+      <c r="A160" s="16"/>
       <c r="B160" s="3">
         <v>45597.600683098171</v>
       </c>
@@ -38859,7 +38859,7 @@
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A161" s="13"/>
+      <c r="A161" s="16"/>
       <c r="B161" s="3">
         <v>45597.600687575112</v>
       </c>
@@ -38872,7 +38872,7 @@
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A162" s="13"/>
+      <c r="A162" s="16"/>
       <c r="B162" s="3">
         <v>45597.601718553095</v>
       </c>
@@ -38885,7 +38885,7 @@
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A163" s="13"/>
+      <c r="A163" s="16"/>
       <c r="B163" s="3">
         <v>45597.601852281281</v>
       </c>
@@ -38898,7 +38898,7 @@
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A164" s="13"/>
+      <c r="A164" s="16"/>
       <c r="B164" s="3">
         <v>45597.602688960804</v>
       </c>
@@ -38911,7 +38911,7 @@
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A165" s="13"/>
+      <c r="A165" s="16"/>
       <c r="B165" s="3">
         <v>45597.60339561983</v>
       </c>
@@ -38924,7 +38924,7 @@
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A166" s="13"/>
+      <c r="A166" s="16"/>
       <c r="B166" s="3">
         <v>45597.603702426793</v>
       </c>
@@ -38937,7 +38937,7 @@
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A167" s="13"/>
+      <c r="A167" s="16"/>
       <c r="B167" s="3">
         <v>45597.604461083218</v>
       </c>
@@ -38950,7 +38950,7 @@
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A168" s="13"/>
+      <c r="A168" s="16"/>
       <c r="B168" s="3">
         <v>45597.604908502588</v>
       </c>
@@ -38963,7 +38963,7 @@
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A169" s="14"/>
+      <c r="A169" s="17"/>
       <c r="B169" s="3">
         <v>45597.605097198728</v>
       </c>
@@ -38976,7 +38976,7 @@
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A170" s="12" t="s">
+      <c r="A170" s="15" t="s">
         <v>14</v>
       </c>
       <c r="B170" s="3">
@@ -38991,7 +38991,7 @@
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A171" s="13"/>
+      <c r="A171" s="16"/>
       <c r="B171" s="3">
         <v>45597.615058497351</v>
       </c>
@@ -39004,7 +39004,7 @@
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A172" s="13"/>
+      <c r="A172" s="16"/>
       <c r="B172" s="3">
         <v>45597.61628193155</v>
       </c>
@@ -39017,7 +39017,7 @@
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A173" s="13"/>
+      <c r="A173" s="16"/>
       <c r="B173" s="3">
         <v>45597.616464194609</v>
       </c>
@@ -39030,7 +39030,7 @@
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A174" s="13"/>
+      <c r="A174" s="16"/>
       <c r="B174" s="3">
         <v>45597.616647804825</v>
       </c>
@@ -39043,7 +39043,7 @@
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A175" s="13"/>
+      <c r="A175" s="16"/>
       <c r="B175" s="3">
         <v>45597.617534277328</v>
       </c>
@@ -39056,7 +39056,7 @@
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A176" s="13"/>
+      <c r="A176" s="16"/>
       <c r="B176" s="3">
         <v>45597.617976658796</v>
       </c>
@@ -39069,7 +39069,7 @@
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A177" s="13"/>
+      <c r="A177" s="16"/>
       <c r="B177" s="3">
         <v>45597.618348713862</v>
       </c>
@@ -39082,7 +39082,7 @@
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A178" s="13"/>
+      <c r="A178" s="16"/>
       <c r="B178" s="3">
         <v>45597.619035262207</v>
       </c>
@@ -39095,7 +39095,7 @@
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A179" s="13"/>
+      <c r="A179" s="16"/>
       <c r="B179" s="3">
         <v>45597.619251889701</v>
       </c>
@@ -39108,7 +39108,7 @@
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A180" s="13"/>
+      <c r="A180" s="16"/>
       <c r="B180" s="3">
         <v>45597.620449103808</v>
       </c>
@@ -39121,7 +39121,7 @@
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A181" s="14"/>
+      <c r="A181" s="17"/>
       <c r="B181" s="3">
         <v>45597.621266333052</v>
       </c>
@@ -39134,7 +39134,7 @@
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A182" s="12" t="s">
+      <c r="A182" s="15" t="s">
         <v>15</v>
       </c>
       <c r="B182" s="3">
@@ -39149,7 +39149,7 @@
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A183" s="13"/>
+      <c r="A183" s="16"/>
       <c r="B183" s="3">
         <v>45597.630856000018</v>
       </c>
@@ -39162,7 +39162,7 @@
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A184" s="13"/>
+      <c r="A184" s="16"/>
       <c r="B184" s="3">
         <v>45597.630383961092</v>
       </c>
@@ -39175,7 +39175,7 @@
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A185" s="13"/>
+      <c r="A185" s="16"/>
       <c r="B185" s="3">
         <v>45597.630693117055</v>
       </c>
@@ -39188,7 +39188,7 @@
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A186" s="13"/>
+      <c r="A186" s="16"/>
       <c r="B186" s="3">
         <v>45597.631808207603</v>
       </c>
@@ -39201,7 +39201,7 @@
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A187" s="13"/>
+      <c r="A187" s="16"/>
       <c r="B187" s="3">
         <v>45597.631759160089</v>
       </c>
@@ -39214,7 +39214,7 @@
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A188" s="13"/>
+      <c r="A188" s="16"/>
       <c r="B188" s="3">
         <v>45597.631919906431</v>
       </c>
@@ -39227,7 +39227,7 @@
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A189" s="13"/>
+      <c r="A189" s="16"/>
       <c r="B189" s="3">
         <v>45597.632906224928</v>
       </c>
@@ -39240,7 +39240,7 @@
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A190" s="13"/>
+      <c r="A190" s="16"/>
       <c r="B190" s="3">
         <v>45597.633469424953</v>
       </c>
@@ -39253,7 +39253,7 @@
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A191" s="13"/>
+      <c r="A191" s="16"/>
       <c r="B191" s="3">
         <v>45597.633525851801</v>
       </c>
@@ -39266,7 +39266,7 @@
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A192" s="13"/>
+      <c r="A192" s="16"/>
       <c r="B192" s="3">
         <v>45597.634091943532</v>
       </c>
@@ -39279,7 +39279,7 @@
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A193" s="14"/>
+      <c r="A193" s="17"/>
       <c r="B193" s="3">
         <v>45597.635004833508</v>
       </c>
@@ -39293,12 +39293,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A62:A73"/>
-    <mergeCell ref="A2:A13"/>
-    <mergeCell ref="A14:A25"/>
-    <mergeCell ref="A26:A37"/>
-    <mergeCell ref="A38:A49"/>
-    <mergeCell ref="A50:A61"/>
     <mergeCell ref="A146:A157"/>
     <mergeCell ref="A158:A169"/>
     <mergeCell ref="A170:A181"/>
@@ -39309,6 +39303,12 @@
     <mergeCell ref="A110:A121"/>
     <mergeCell ref="A122:A133"/>
     <mergeCell ref="A134:A145"/>
+    <mergeCell ref="A62:A73"/>
+    <mergeCell ref="A2:A13"/>
+    <mergeCell ref="A14:A25"/>
+    <mergeCell ref="A26:A37"/>
+    <mergeCell ref="A38:A49"/>
+    <mergeCell ref="A50:A61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
